--- a/Python/datasets/Experiments/Differences.xlsx
+++ b/Python/datasets/Experiments/Differences.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\WebApriori\Python\datasets\Experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7760E5-4E2B-4475-A691-48056C59FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="24855" windowHeight="12030"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="2017">
   <si>
     <t>58: 3195,</t>
   </si>
@@ -6031,16 +6037,60 @@
   </si>
   <si>
     <t>52,29,40,60,62,56</t>
+  </si>
+  <si>
+    <t>58,52,29,40,60,62,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'58': 3195, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'52': 3185, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'29': 3181, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'40': 3170, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'60': 3149, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'36': 3099, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'7': 3076, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'62': 3060, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'34': 3040, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'66': 3021, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'56': 3021, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -6076,21 +6126,29 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6128,7 +6186,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -6162,6 +6220,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6196,9 +6255,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6371,14 +6431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A863" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
       <selection activeCell="D882" sqref="D882"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -6387,7 +6447,7 @@
     <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6403,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1008</v>
       </c>
@@ -6411,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6419,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1009</v>
       </c>
@@ -6427,7 +6487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1010</v>
       </c>
@@ -6435,7 +6495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6443,7 +6503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1011</v>
       </c>
@@ -6451,7 +6511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1012</v>
       </c>
@@ -6459,7 +6519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1013</v>
       </c>
@@ -6467,7 +6527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1014</v>
       </c>
@@ -6475,7 +6535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1015</v>
       </c>
@@ -6483,7 +6543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1016</v>
       </c>
@@ -6491,7 +6551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6499,7 +6559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1017</v>
       </c>
@@ -6507,7 +6567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1018</v>
       </c>
@@ -6515,7 +6575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1019</v>
       </c>
@@ -6523,7 +6583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>1020</v>
       </c>
@@ -6531,7 +6591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1021</v>
       </c>
@@ -6539,7 +6599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1022</v>
       </c>
@@ -6547,7 +6607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1023</v>
       </c>
@@ -6555,7 +6615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1024</v>
       </c>
@@ -6563,7 +6623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1025</v>
       </c>
@@ -6571,7 +6631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1026</v>
       </c>
@@ -6579,7 +6639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1027</v>
       </c>
@@ -6587,7 +6647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1028</v>
       </c>
@@ -6595,7 +6655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1029</v>
       </c>
@@ -6603,7 +6663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1030</v>
       </c>
@@ -6611,7 +6671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1031</v>
       </c>
@@ -6619,7 +6679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1032</v>
       </c>
@@ -6627,7 +6687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1033</v>
       </c>
@@ -6635,7 +6695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -6643,7 +6703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1034</v>
       </c>
@@ -6651,7 +6711,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1035</v>
       </c>
@@ -6659,7 +6719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1036</v>
       </c>
@@ -6667,7 +6727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1037</v>
       </c>
@@ -6675,7 +6735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1038</v>
       </c>
@@ -6683,7 +6743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1039</v>
       </c>
@@ -6691,7 +6751,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1040</v>
       </c>
@@ -6699,7 +6759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1041</v>
       </c>
@@ -6707,7 +6767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1042</v>
       </c>
@@ -6715,7 +6775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1043</v>
       </c>
@@ -6723,7 +6783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1044</v>
       </c>
@@ -6731,7 +6791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1045</v>
       </c>
@@ -6739,7 +6799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1046</v>
       </c>
@@ -6747,7 +6807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1047</v>
       </c>
@@ -6755,7 +6815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1048</v>
       </c>
@@ -6763,7 +6823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1049</v>
       </c>
@@ -6771,7 +6831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1050</v>
       </c>
@@ -6779,7 +6839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -6787,7 +6847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1051</v>
       </c>
@@ -6795,7 +6855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1052</v>
       </c>
@@ -6803,7 +6863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1053</v>
       </c>
@@ -6811,7 +6871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1054</v>
       </c>
@@ -6819,7 +6879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1055</v>
       </c>
@@ -6827,7 +6887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1056</v>
       </c>
@@ -6835,7 +6895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1057</v>
       </c>
@@ -6843,7 +6903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1058</v>
       </c>
@@ -6851,7 +6911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1059</v>
       </c>
@@ -6859,7 +6919,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1060</v>
       </c>
@@ -6867,7 +6927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1061</v>
       </c>
@@ -6875,7 +6935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1062</v>
       </c>
@@ -6883,7 +6943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1063</v>
       </c>
@@ -6891,7 +6951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1064</v>
       </c>
@@ -6899,7 +6959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1065</v>
       </c>
@@ -6907,7 +6967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>1066</v>
       </c>
@@ -6915,7 +6975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>1067</v>
       </c>
@@ -6923,7 +6983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1068</v>
       </c>
@@ -6931,7 +6991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>1069</v>
       </c>
@@ -6939,7 +6999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>1070</v>
       </c>
@@ -6947,7 +7007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>1071</v>
       </c>
@@ -6955,7 +7015,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -6963,7 +7023,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>1072</v>
       </c>
@@ -6971,7 +7031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>1073</v>
       </c>
@@ -6979,7 +7039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>1074</v>
       </c>
@@ -6987,7 +7047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1075</v>
       </c>
@@ -6995,7 +7055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>1076</v>
       </c>
@@ -7003,7 +7063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1077</v>
       </c>
@@ -7011,7 +7071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1078</v>
       </c>
@@ -7019,7 +7079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>1079</v>
       </c>
@@ -7027,7 +7087,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>1080</v>
       </c>
@@ -7035,7 +7095,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1081</v>
       </c>
@@ -7043,7 +7103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1082</v>
       </c>
@@ -7051,7 +7111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>1083</v>
       </c>
@@ -7059,7 +7119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1084</v>
       </c>
@@ -7067,7 +7127,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1085</v>
       </c>
@@ -7075,7 +7135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>1086</v>
       </c>
@@ -7083,7 +7143,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>1087</v>
       </c>
@@ -7091,7 +7151,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>1088</v>
       </c>
@@ -7099,7 +7159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1089</v>
       </c>
@@ -7107,7 +7167,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1090</v>
       </c>
@@ -7115,7 +7175,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>1091</v>
       </c>
@@ -7123,7 +7183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>1092</v>
       </c>
@@ -7131,7 +7191,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1093</v>
       </c>
@@ -7139,7 +7199,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>1094</v>
       </c>
@@ -7147,7 +7207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1095</v>
       </c>
@@ -7155,7 +7215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>1096</v>
       </c>
@@ -7163,7 +7223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1097</v>
       </c>
@@ -7171,7 +7231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1098</v>
       </c>
@@ -7179,7 +7239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -7187,7 +7247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>1099</v>
       </c>
@@ -7195,7 +7255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
@@ -7203,7 +7263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1100</v>
       </c>
@@ -7211,7 +7271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1101</v>
       </c>
@@ -7219,7 +7279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1102</v>
       </c>
@@ -7227,7 +7287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1103</v>
       </c>
@@ -7235,7 +7295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1104</v>
       </c>
@@ -7243,7 +7303,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1105</v>
       </c>
@@ -7251,7 +7311,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1106</v>
       </c>
@@ -7259,7 +7319,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1107</v>
       </c>
@@ -7267,7 +7327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1108</v>
       </c>
@@ -7275,7 +7335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1109</v>
       </c>
@@ -7283,7 +7343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1110</v>
       </c>
@@ -7291,7 +7351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1111</v>
       </c>
@@ -7299,7 +7359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1112</v>
       </c>
@@ -7307,7 +7367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1113</v>
       </c>
@@ -7315,7 +7375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1114</v>
       </c>
@@ -7323,7 +7383,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1115</v>
       </c>
@@ -7331,7 +7391,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1116</v>
       </c>
@@ -7339,7 +7399,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1117</v>
       </c>
@@ -7347,7 +7407,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>117</v>
       </c>
@@ -7355,7 +7415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1118</v>
       </c>
@@ -7363,7 +7423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1119</v>
       </c>
@@ -7371,7 +7431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1120</v>
       </c>
@@ -7379,7 +7439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1121</v>
       </c>
@@ -7387,7 +7447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1122</v>
       </c>
@@ -7395,7 +7455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1123</v>
       </c>
@@ -7403,7 +7463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1124</v>
       </c>
@@ -7411,7 +7471,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1125</v>
       </c>
@@ -7419,7 +7479,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1126</v>
       </c>
@@ -7427,7 +7487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1127</v>
       </c>
@@ -7435,7 +7495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1128</v>
       </c>
@@ -7443,7 +7503,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1129</v>
       </c>
@@ -7451,7 +7511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1130</v>
       </c>
@@ -7459,7 +7519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1131</v>
       </c>
@@ -7467,7 +7527,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1132</v>
       </c>
@@ -7475,7 +7535,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1133</v>
       </c>
@@ -7483,7 +7543,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1134</v>
       </c>
@@ -7491,7 +7551,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1135</v>
       </c>
@@ -7499,7 +7559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1136</v>
       </c>
@@ -7507,7 +7567,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1137</v>
       </c>
@@ -7515,7 +7575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1138</v>
       </c>
@@ -7523,7 +7583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1139</v>
       </c>
@@ -7531,7 +7591,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1140</v>
       </c>
@@ -7539,7 +7599,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1141</v>
       </c>
@@ -7547,7 +7607,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1142</v>
       </c>
@@ -7555,7 +7615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1143</v>
       </c>
@@ -7563,7 +7623,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1144</v>
       </c>
@@ -7571,7 +7631,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1145</v>
       </c>
@@ -7579,7 +7639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1146</v>
       </c>
@@ -7587,7 +7647,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1147</v>
       </c>
@@ -7595,7 +7655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1148</v>
       </c>
@@ -7603,7 +7663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1149</v>
       </c>
@@ -7611,7 +7671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1150</v>
       </c>
@@ -7619,7 +7679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1151</v>
       </c>
@@ -7627,7 +7687,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1152</v>
       </c>
@@ -7635,7 +7695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1153</v>
       </c>
@@ -7643,7 +7703,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1154</v>
       </c>
@@ -7651,7 +7711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1155</v>
       </c>
@@ -7659,7 +7719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1156</v>
       </c>
@@ -7667,7 +7727,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1157</v>
       </c>
@@ -7675,7 +7735,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1158</v>
       </c>
@@ -7683,7 +7743,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>1159</v>
       </c>
@@ -7691,7 +7751,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1160</v>
       </c>
@@ -7699,7 +7759,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1161</v>
       </c>
@@ -7707,7 +7767,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1162</v>
       </c>
@@ -7715,7 +7775,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>1163</v>
       </c>
@@ -7723,7 +7783,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1164</v>
       </c>
@@ -7731,7 +7791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1165</v>
       </c>
@@ -7739,7 +7799,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1166</v>
       </c>
@@ -7747,7 +7807,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1167</v>
       </c>
@@ -7755,7 +7815,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1168</v>
       </c>
@@ -7763,7 +7823,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1169</v>
       </c>
@@ -7771,7 +7831,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1170</v>
       </c>
@@ -7779,7 +7839,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1171</v>
       </c>
@@ -7787,7 +7847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1172</v>
       </c>
@@ -7795,7 +7855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7803,7 +7863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1174</v>
       </c>
@@ -7811,7 +7871,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1175</v>
       </c>
@@ -7819,7 +7879,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1176</v>
       </c>
@@ -7827,7 +7887,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1177</v>
       </c>
@@ -7835,7 +7895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1178</v>
       </c>
@@ -7843,7 +7903,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1179</v>
       </c>
@@ -7851,7 +7911,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1180</v>
       </c>
@@ -7859,7 +7919,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1181</v>
       </c>
@@ -7867,7 +7927,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1182</v>
       </c>
@@ -7875,7 +7935,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1183</v>
       </c>
@@ -7883,7 +7943,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1184</v>
       </c>
@@ -7891,7 +7951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1185</v>
       </c>
@@ -7899,7 +7959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1186</v>
       </c>
@@ -7907,7 +7967,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1187</v>
       </c>
@@ -7915,7 +7975,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1188</v>
       </c>
@@ -7923,7 +7983,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1189</v>
       </c>
@@ -7931,7 +7991,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1190</v>
       </c>
@@ -7939,7 +7999,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1191</v>
       </c>
@@ -7947,7 +8007,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1192</v>
       </c>
@@ -7955,7 +8015,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1193</v>
       </c>
@@ -7963,7 +8023,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1194</v>
       </c>
@@ -7971,7 +8031,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1195</v>
       </c>
@@ -7979,7 +8039,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1196</v>
       </c>
@@ -7987,7 +8047,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1197</v>
       </c>
@@ -7995,7 +8055,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1198</v>
       </c>
@@ -8003,7 +8063,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1199</v>
       </c>
@@ -8011,7 +8071,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1200</v>
       </c>
@@ -8019,7 +8079,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1201</v>
       </c>
@@ -8027,7 +8087,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1202</v>
       </c>
@@ -8035,7 +8095,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1203</v>
       </c>
@@ -8043,7 +8103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1204</v>
       </c>
@@ -8051,7 +8111,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1205</v>
       </c>
@@ -8059,7 +8119,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1206</v>
       </c>
@@ -8067,7 +8127,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1207</v>
       </c>
@@ -8075,7 +8135,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1208</v>
       </c>
@@ -8083,7 +8143,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1209</v>
       </c>
@@ -8091,7 +8151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1210</v>
       </c>
@@ -8099,7 +8159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1211</v>
       </c>
@@ -8107,7 +8167,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1212</v>
       </c>
@@ -8115,7 +8175,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1213</v>
       </c>
@@ -8123,7 +8183,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1214</v>
       </c>
@@ -8131,7 +8191,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1215</v>
       </c>
@@ -8139,7 +8199,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1216</v>
       </c>
@@ -8147,7 +8207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1217</v>
       </c>
@@ -8155,7 +8215,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1218</v>
       </c>
@@ -8163,7 +8223,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1219</v>
       </c>
@@ -8171,7 +8231,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1220</v>
       </c>
@@ -8179,7 +8239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1221</v>
       </c>
@@ -8187,7 +8247,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1222</v>
       </c>
@@ -8195,7 +8255,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1223</v>
       </c>
@@ -8203,7 +8263,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1224</v>
       </c>
@@ -8211,7 +8271,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1225</v>
       </c>
@@ -8219,7 +8279,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1226</v>
       </c>
@@ -8227,7 +8287,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1227</v>
       </c>
@@ -8235,7 +8295,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1228</v>
       </c>
@@ -8243,7 +8303,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1229</v>
       </c>
@@ -8251,7 +8311,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1230</v>
       </c>
@@ -8259,7 +8319,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1231</v>
       </c>
@@ -8267,7 +8327,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1232</v>
       </c>
@@ -8275,7 +8335,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1233</v>
       </c>
@@ -8283,7 +8343,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>1234</v>
       </c>
@@ -8291,7 +8351,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1235</v>
       </c>
@@ -8299,7 +8359,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1236</v>
       </c>
@@ -8307,7 +8367,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1237</v>
       </c>
@@ -8315,7 +8375,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>1238</v>
       </c>
@@ -8323,7 +8383,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>1239</v>
       </c>
@@ -8331,7 +8391,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>1240</v>
       </c>
@@ -8339,7 +8399,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>1241</v>
       </c>
@@ -8347,7 +8407,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>1242</v>
       </c>
@@ -8355,7 +8415,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>1243</v>
       </c>
@@ -8363,7 +8423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>1244</v>
       </c>
@@ -8371,7 +8431,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>1245</v>
       </c>
@@ -8379,7 +8439,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>1246</v>
       </c>
@@ -8387,7 +8447,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>1247</v>
       </c>
@@ -8395,7 +8455,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1248</v>
       </c>
@@ -8403,7 +8463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>1249</v>
       </c>
@@ -8411,7 +8471,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>1250</v>
       </c>
@@ -8419,7 +8479,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>1251</v>
       </c>
@@ -8427,7 +8487,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>1252</v>
       </c>
@@ -8435,7 +8495,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>1253</v>
       </c>
@@ -8443,7 +8503,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>1254</v>
       </c>
@@ -8451,7 +8511,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>1255</v>
       </c>
@@ -8459,7 +8519,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1256</v>
       </c>
@@ -8467,7 +8527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1257</v>
       </c>
@@ -8475,7 +8535,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1258</v>
       </c>
@@ -8483,7 +8543,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1259</v>
       </c>
@@ -8491,7 +8551,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1260</v>
       </c>
@@ -8499,7 +8559,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1261</v>
       </c>
@@ -8507,7 +8567,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1262</v>
       </c>
@@ -8515,7 +8575,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1263</v>
       </c>
@@ -8523,7 +8583,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1264</v>
       </c>
@@ -8531,7 +8591,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1265</v>
       </c>
@@ -8539,7 +8599,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1266</v>
       </c>
@@ -8547,7 +8607,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1267</v>
       </c>
@@ -8555,7 +8615,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1268</v>
       </c>
@@ -8563,7 +8623,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1269</v>
       </c>
@@ -8571,7 +8631,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1270</v>
       </c>
@@ -8579,7 +8639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1271</v>
       </c>
@@ -8587,7 +8647,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1272</v>
       </c>
@@ -8595,7 +8655,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1273</v>
       </c>
@@ -8603,7 +8663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1274</v>
       </c>
@@ -8611,7 +8671,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1275</v>
       </c>
@@ -8619,7 +8679,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1276</v>
       </c>
@@ -8627,7 +8687,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1277</v>
       </c>
@@ -8635,7 +8695,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1278</v>
       </c>
@@ -8643,7 +8703,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1279</v>
       </c>
@@ -8651,7 +8711,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1280</v>
       </c>
@@ -8659,7 +8719,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1281</v>
       </c>
@@ -8667,7 +8727,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1282</v>
       </c>
@@ -8675,7 +8735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1283</v>
       </c>
@@ -8683,7 +8743,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1284</v>
       </c>
@@ -8691,7 +8751,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1285</v>
       </c>
@@ -8699,7 +8759,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1286</v>
       </c>
@@ -8707,7 +8767,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1287</v>
       </c>
@@ -8715,7 +8775,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1288</v>
       </c>
@@ -8723,7 +8783,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1289</v>
       </c>
@@ -8731,7 +8791,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1290</v>
       </c>
@@ -8739,7 +8799,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1291</v>
       </c>
@@ -8747,7 +8807,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1292</v>
       </c>
@@ -8755,7 +8815,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1293</v>
       </c>
@@ -8763,7 +8823,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1294</v>
       </c>
@@ -8771,7 +8831,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1295</v>
       </c>
@@ -8779,7 +8839,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>1296</v>
       </c>
@@ -8787,7 +8847,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>1297</v>
       </c>
@@ -8795,7 +8855,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>1298</v>
       </c>
@@ -8803,7 +8863,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>1299</v>
       </c>
@@ -8811,7 +8871,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>1300</v>
       </c>
@@ -8819,7 +8879,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>1301</v>
       </c>
@@ -8827,7 +8887,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>1302</v>
       </c>
@@ -8835,7 +8895,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>1303</v>
       </c>
@@ -8843,7 +8903,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>1304</v>
       </c>
@@ -8851,7 +8911,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>1305</v>
       </c>
@@ -8859,7 +8919,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>1306</v>
       </c>
@@ -8867,7 +8927,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>1307</v>
       </c>
@@ -8875,7 +8935,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>1308</v>
       </c>
@@ -8883,7 +8943,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>1309</v>
       </c>
@@ -8891,7 +8951,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>1310</v>
       </c>
@@ -8899,7 +8959,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>1311</v>
       </c>
@@ -8907,7 +8967,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>1312</v>
       </c>
@@ -8915,7 +8975,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>1313</v>
       </c>
@@ -8923,7 +8983,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>1314</v>
       </c>
@@ -8931,7 +8991,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>1315</v>
       </c>
@@ -8939,7 +8999,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>1316</v>
       </c>
@@ -8947,7 +9007,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>1317</v>
       </c>
@@ -8955,7 +9015,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>1318</v>
       </c>
@@ -8963,7 +9023,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>1319</v>
       </c>
@@ -8971,7 +9031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>1320</v>
       </c>
@@ -8979,7 +9039,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>1321</v>
       </c>
@@ -8987,7 +9047,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>1322</v>
       </c>
@@ -8995,7 +9055,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>1323</v>
       </c>
@@ -9003,7 +9063,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>1324</v>
       </c>
@@ -9011,7 +9071,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>1325</v>
       </c>
@@ -9019,7 +9079,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>1326</v>
       </c>
@@ -9027,7 +9087,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>1327</v>
       </c>
@@ -9035,7 +9095,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1328</v>
       </c>
@@ -9043,7 +9103,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>1329</v>
       </c>
@@ -9051,7 +9111,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>1330</v>
       </c>
@@ -9059,7 +9119,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>1331</v>
       </c>
@@ -9067,7 +9127,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>1332</v>
       </c>
@@ -9075,7 +9135,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>1333</v>
       </c>
@@ -9083,7 +9143,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>1334</v>
       </c>
@@ -9091,7 +9151,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1335</v>
       </c>
@@ -9099,7 +9159,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>1336</v>
       </c>
@@ -9107,7 +9167,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>1337</v>
       </c>
@@ -9115,7 +9175,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>1338</v>
       </c>
@@ -9123,7 +9183,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>1339</v>
       </c>
@@ -9131,7 +9191,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>1340</v>
       </c>
@@ -9139,7 +9199,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>1341</v>
       </c>
@@ -9147,7 +9207,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>1342</v>
       </c>
@@ -9155,7 +9215,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>1343</v>
       </c>
@@ -9163,7 +9223,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>1344</v>
       </c>
@@ -9171,7 +9231,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>1345</v>
       </c>
@@ -9179,7 +9239,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>1346</v>
       </c>
@@ -9187,7 +9247,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>1347</v>
       </c>
@@ -9195,7 +9255,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>1348</v>
       </c>
@@ -9203,7 +9263,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>1349</v>
       </c>
@@ -9211,7 +9271,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>1350</v>
       </c>
@@ -9219,7 +9279,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>1351</v>
       </c>
@@ -9227,7 +9287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>1352</v>
       </c>
@@ -9235,7 +9295,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>1353</v>
       </c>
@@ -9243,7 +9303,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>1354</v>
       </c>
@@ -9251,7 +9311,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>1355</v>
       </c>
@@ -9259,7 +9319,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>1356</v>
       </c>
@@ -9267,7 +9327,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>1357</v>
       </c>
@@ -9275,7 +9335,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>1358</v>
       </c>
@@ -9283,7 +9343,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>1359</v>
       </c>
@@ -9291,7 +9351,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>1360</v>
       </c>
@@ -9299,7 +9359,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>1361</v>
       </c>
@@ -9307,7 +9367,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>1362</v>
       </c>
@@ -9315,7 +9375,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>1363</v>
       </c>
@@ -9323,7 +9383,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>1364</v>
       </c>
@@ -9331,7 +9391,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>1365</v>
       </c>
@@ -9339,7 +9399,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>1366</v>
       </c>
@@ -9347,7 +9407,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>1367</v>
       </c>
@@ -9355,7 +9415,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>1368</v>
       </c>
@@ -9363,7 +9423,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>1369</v>
       </c>
@@ -9371,7 +9431,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>1370</v>
       </c>
@@ -9379,7 +9439,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>1371</v>
       </c>
@@ -9387,7 +9447,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>1372</v>
       </c>
@@ -9395,7 +9455,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>1373</v>
       </c>
@@ -9403,7 +9463,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1374</v>
       </c>
@@ -9411,7 +9471,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>1375</v>
       </c>
@@ -9419,7 +9479,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>1376</v>
       </c>
@@ -9427,7 +9487,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>1377</v>
       </c>
@@ -9435,7 +9495,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>1378</v>
       </c>
@@ -9443,7 +9503,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>1379</v>
       </c>
@@ -9451,7 +9511,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>1380</v>
       </c>
@@ -9459,7 +9519,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>1381</v>
       </c>
@@ -9467,7 +9527,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>1382</v>
       </c>
@@ -9475,7 +9535,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>1383</v>
       </c>
@@ -9483,7 +9543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>1384</v>
       </c>
@@ -9491,7 +9551,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>1385</v>
       </c>
@@ -9499,7 +9559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>1386</v>
       </c>
@@ -9507,7 +9567,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>1387</v>
       </c>
@@ -9515,7 +9575,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>1388</v>
       </c>
@@ -9523,7 +9583,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>1389</v>
       </c>
@@ -9531,7 +9591,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>1390</v>
       </c>
@@ -9539,7 +9599,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>1391</v>
       </c>
@@ -9547,7 +9607,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>1392</v>
       </c>
@@ -9555,7 +9615,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>1393</v>
       </c>
@@ -9563,7 +9623,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>1394</v>
       </c>
@@ -9571,7 +9631,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>1395</v>
       </c>
@@ -9579,7 +9639,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>1396</v>
       </c>
@@ -9587,7 +9647,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>1397</v>
       </c>
@@ -9595,7 +9655,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>1398</v>
       </c>
@@ -9603,7 +9663,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>1399</v>
       </c>
@@ -9611,7 +9671,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>1400</v>
       </c>
@@ -9619,7 +9679,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>1401</v>
       </c>
@@ -9627,7 +9687,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>1402</v>
       </c>
@@ -9635,7 +9695,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>1403</v>
       </c>
@@ -9643,7 +9703,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>1404</v>
       </c>
@@ -9651,7 +9711,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>1405</v>
       </c>
@@ -9659,7 +9719,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>1406</v>
       </c>
@@ -9667,7 +9727,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>1407</v>
       </c>
@@ -9675,7 +9735,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>1408</v>
       </c>
@@ -9683,7 +9743,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>1409</v>
       </c>
@@ -9691,7 +9751,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>1410</v>
       </c>
@@ -9699,7 +9759,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>1411</v>
       </c>
@@ -9707,7 +9767,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>1412</v>
       </c>
@@ -9715,7 +9775,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>1413</v>
       </c>
@@ -9723,7 +9783,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>1414</v>
       </c>
@@ -9731,7 +9791,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>1415</v>
       </c>
@@ -9739,7 +9799,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>1416</v>
       </c>
@@ -9747,7 +9807,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>1417</v>
       </c>
@@ -9755,7 +9815,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>1418</v>
       </c>
@@ -9763,7 +9823,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>1419</v>
       </c>
@@ -9771,7 +9831,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>1420</v>
       </c>
@@ -9779,7 +9839,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>1421</v>
       </c>
@@ -9787,7 +9847,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>1422</v>
       </c>
@@ -9795,7 +9855,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>1423</v>
       </c>
@@ -9803,7 +9863,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>1424</v>
       </c>
@@ -9811,7 +9871,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>1425</v>
       </c>
@@ -9819,7 +9879,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>1426</v>
       </c>
@@ -9827,7 +9887,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>1427</v>
       </c>
@@ -9835,7 +9895,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>1428</v>
       </c>
@@ -9843,7 +9903,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>1429</v>
       </c>
@@ -9851,7 +9911,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>1430</v>
       </c>
@@ -9859,7 +9919,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>1431</v>
       </c>
@@ -9867,7 +9927,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>1432</v>
       </c>
@@ -9875,7 +9935,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>1433</v>
       </c>
@@ -9883,7 +9943,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>1434</v>
       </c>
@@ -9891,7 +9951,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>1435</v>
       </c>
@@ -9899,7 +9959,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>1436</v>
       </c>
@@ -9907,7 +9967,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -9915,7 +9975,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1438</v>
       </c>
@@ -9923,7 +9983,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>1439</v>
       </c>
@@ -9931,7 +9991,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1440</v>
       </c>
@@ -9939,7 +9999,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>1441</v>
       </c>
@@ -9947,7 +10007,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1442</v>
       </c>
@@ -9955,7 +10015,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>1443</v>
       </c>
@@ -9963,7 +10023,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1444</v>
       </c>
@@ -9971,7 +10031,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>1445</v>
       </c>
@@ -9979,7 +10039,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1446</v>
       </c>
@@ -9987,7 +10047,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>1447</v>
       </c>
@@ -9995,7 +10055,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1448</v>
       </c>
@@ -10003,7 +10063,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>1449</v>
       </c>
@@ -10011,7 +10071,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1450</v>
       </c>
@@ -10019,7 +10079,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>1451</v>
       </c>
@@ -10027,7 +10087,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1452</v>
       </c>
@@ -10035,7 +10095,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>1453</v>
       </c>
@@ -10043,7 +10103,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1454</v>
       </c>
@@ -10051,7 +10111,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>1455</v>
       </c>
@@ -10059,7 +10119,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1456</v>
       </c>
@@ -10067,7 +10127,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>1457</v>
       </c>
@@ -10075,7 +10135,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1458</v>
       </c>
@@ -10083,7 +10143,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>1459</v>
       </c>
@@ -10091,7 +10151,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1460</v>
       </c>
@@ -10099,7 +10159,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>1461</v>
       </c>
@@ -10107,7 +10167,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1462</v>
       </c>
@@ -10115,7 +10175,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>1463</v>
       </c>
@@ -10123,7 +10183,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1464</v>
       </c>
@@ -10131,7 +10191,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>1465</v>
       </c>
@@ -10139,7 +10199,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1466</v>
       </c>
@@ -10147,7 +10207,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>1467</v>
       </c>
@@ -10155,7 +10215,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1468</v>
       </c>
@@ -10163,7 +10223,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>1469</v>
       </c>
@@ -10171,7 +10231,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1470</v>
       </c>
@@ -10179,7 +10239,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>1471</v>
       </c>
@@ -10187,7 +10247,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1472</v>
       </c>
@@ -10195,7 +10255,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>1473</v>
       </c>
@@ -10203,7 +10263,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1474</v>
       </c>
@@ -10211,7 +10271,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>1475</v>
       </c>
@@ -10219,7 +10279,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1476</v>
       </c>
@@ -10227,7 +10287,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>1477</v>
       </c>
@@ -10235,7 +10295,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1478</v>
       </c>
@@ -10243,7 +10303,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>1479</v>
       </c>
@@ -10251,7 +10311,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1480</v>
       </c>
@@ -10259,7 +10319,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>1481</v>
       </c>
@@ -10267,7 +10327,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1482</v>
       </c>
@@ -10275,7 +10335,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>1483</v>
       </c>
@@ -10283,7 +10343,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1484</v>
       </c>
@@ -10291,7 +10351,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>1485</v>
       </c>
@@ -10299,7 +10359,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1486</v>
       </c>
@@ -10307,7 +10367,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>1487</v>
       </c>
@@ -10315,7 +10375,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1488</v>
       </c>
@@ -10323,7 +10383,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>1489</v>
       </c>
@@ -10331,7 +10391,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1490</v>
       </c>
@@ -10339,7 +10399,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>1491</v>
       </c>
@@ -10347,7 +10407,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1492</v>
       </c>
@@ -10355,7 +10415,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>1493</v>
       </c>
@@ -10363,7 +10423,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1494</v>
       </c>
@@ -10371,7 +10431,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>1495</v>
       </c>
@@ -10379,7 +10439,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1496</v>
       </c>
@@ -10387,7 +10447,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>1497</v>
       </c>
@@ -10395,7 +10455,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1498</v>
       </c>
@@ -10403,7 +10463,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>1499</v>
       </c>
@@ -10411,7 +10471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1500</v>
       </c>
@@ -10419,7 +10479,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>1501</v>
       </c>
@@ -10427,7 +10487,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1502</v>
       </c>
@@ -10435,7 +10495,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>1503</v>
       </c>
@@ -10443,7 +10503,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1504</v>
       </c>
@@ -10451,7 +10511,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>1505</v>
       </c>
@@ -10459,7 +10519,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1506</v>
       </c>
@@ -10467,7 +10527,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>1507</v>
       </c>
@@ -10475,7 +10535,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1508</v>
       </c>
@@ -10483,7 +10543,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>1509</v>
       </c>
@@ -10491,7 +10551,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1510</v>
       </c>
@@ -10499,7 +10559,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>1511</v>
       </c>
@@ -10507,7 +10567,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1512</v>
       </c>
@@ -10515,7 +10575,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>1513</v>
       </c>
@@ -10523,7 +10583,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1514</v>
       </c>
@@ -10531,7 +10591,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>1515</v>
       </c>
@@ -10539,7 +10599,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1516</v>
       </c>
@@ -10547,7 +10607,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>1517</v>
       </c>
@@ -10555,7 +10615,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1518</v>
       </c>
@@ -10563,7 +10623,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>1519</v>
       </c>
@@ -10571,7 +10631,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1520</v>
       </c>
@@ -10579,7 +10639,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>1521</v>
       </c>
@@ -10587,7 +10647,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1522</v>
       </c>
@@ -10595,7 +10655,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>1523</v>
       </c>
@@ -10603,7 +10663,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1524</v>
       </c>
@@ -10611,7 +10671,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>1525</v>
       </c>
@@ -10619,7 +10679,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1526</v>
       </c>
@@ -10627,7 +10687,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>1527</v>
       </c>
@@ -10635,7 +10695,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1528</v>
       </c>
@@ -10643,7 +10703,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>1529</v>
       </c>
@@ -10651,7 +10711,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1530</v>
       </c>
@@ -10659,7 +10719,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>1531</v>
       </c>
@@ -10667,7 +10727,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1532</v>
       </c>
@@ -10675,7 +10735,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>1533</v>
       </c>
@@ -10683,7 +10743,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1534</v>
       </c>
@@ -10691,7 +10751,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>1535</v>
       </c>
@@ -10699,7 +10759,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1536</v>
       </c>
@@ -10707,7 +10767,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>1537</v>
       </c>
@@ -10715,7 +10775,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1538</v>
       </c>
@@ -10723,7 +10783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>1539</v>
       </c>
@@ -10731,7 +10791,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1540</v>
       </c>
@@ -10739,7 +10799,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>1541</v>
       </c>
@@ -10747,7 +10807,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1542</v>
       </c>
@@ -10755,7 +10815,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>1543</v>
       </c>
@@ -10763,7 +10823,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1544</v>
       </c>
@@ -10771,7 +10831,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>1545</v>
       </c>
@@ -10779,7 +10839,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1546</v>
       </c>
@@ -10787,7 +10847,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>1547</v>
       </c>
@@ -10795,7 +10855,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1548</v>
       </c>
@@ -10803,7 +10863,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>1549</v>
       </c>
@@ -10811,7 +10871,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1550</v>
       </c>
@@ -10819,7 +10879,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>1551</v>
       </c>
@@ -10827,7 +10887,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1552</v>
       </c>
@@ -10835,7 +10895,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>1553</v>
       </c>
@@ -10843,7 +10903,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1554</v>
       </c>
@@ -10851,7 +10911,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>1555</v>
       </c>
@@ -10859,7 +10919,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1556</v>
       </c>
@@ -10867,7 +10927,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>1557</v>
       </c>
@@ -10875,7 +10935,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1558</v>
       </c>
@@ -10883,7 +10943,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>1559</v>
       </c>
@@ -10891,7 +10951,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1560</v>
       </c>
@@ -10899,7 +10959,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>1561</v>
       </c>
@@ -10907,7 +10967,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1562</v>
       </c>
@@ -10915,7 +10975,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>1563</v>
       </c>
@@ -10923,7 +10983,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1564</v>
       </c>
@@ -10931,7 +10991,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>1565</v>
       </c>
@@ -10939,7 +10999,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1566</v>
       </c>
@@ -10947,7 +11007,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>1567</v>
       </c>
@@ -10955,7 +11015,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1568</v>
       </c>
@@ -10963,7 +11023,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>1569</v>
       </c>
@@ -10971,7 +11031,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1570</v>
       </c>
@@ -10979,7 +11039,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>1571</v>
       </c>
@@ -10987,7 +11047,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1572</v>
       </c>
@@ -10995,7 +11055,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>1573</v>
       </c>
@@ -11003,7 +11063,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1574</v>
       </c>
@@ -11011,7 +11071,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>1575</v>
       </c>
@@ -11019,7 +11079,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1576</v>
       </c>
@@ -11027,7 +11087,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>1577</v>
       </c>
@@ -11035,7 +11095,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1578</v>
       </c>
@@ -11043,7 +11103,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>1579</v>
       </c>
@@ -11051,7 +11111,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1580</v>
       </c>
@@ -11059,7 +11119,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>1581</v>
       </c>
@@ -11067,7 +11127,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1582</v>
       </c>
@@ -11075,7 +11135,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>1583</v>
       </c>
@@ -11083,7 +11143,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1584</v>
       </c>
@@ -11091,7 +11151,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>1585</v>
       </c>
@@ -11099,7 +11159,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1586</v>
       </c>
@@ -11107,7 +11167,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>1587</v>
       </c>
@@ -11115,7 +11175,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1588</v>
       </c>
@@ -11123,7 +11183,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>1589</v>
       </c>
@@ -11131,7 +11191,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1590</v>
       </c>
@@ -11139,7 +11199,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1591</v>
       </c>
@@ -11147,7 +11207,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1592</v>
       </c>
@@ -11155,7 +11215,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1593</v>
       </c>
@@ -11163,7 +11223,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1594</v>
       </c>
@@ -11171,7 +11231,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1595</v>
       </c>
@@ -11179,7 +11239,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1596</v>
       </c>
@@ -11187,7 +11247,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1597</v>
       </c>
@@ -11195,7 +11255,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1598</v>
       </c>
@@ -11203,7 +11263,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1599</v>
       </c>
@@ -11211,7 +11271,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1600</v>
       </c>
@@ -11219,7 +11279,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1601</v>
       </c>
@@ -11227,7 +11287,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1602</v>
       </c>
@@ -11235,7 +11295,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1603</v>
       </c>
@@ -11243,7 +11303,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1604</v>
       </c>
@@ -11251,7 +11311,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1605</v>
       </c>
@@ -11259,7 +11319,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1606</v>
       </c>
@@ -11267,7 +11327,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1607</v>
       </c>
@@ -11275,7 +11335,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1608</v>
       </c>
@@ -11283,7 +11343,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1609</v>
       </c>
@@ -11291,7 +11351,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1610</v>
       </c>
@@ -11299,7 +11359,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1611</v>
       </c>
@@ -11307,7 +11367,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1612</v>
       </c>
@@ -11315,7 +11375,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1613</v>
       </c>
@@ -11323,7 +11383,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1614</v>
       </c>
@@ -11331,7 +11391,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1615</v>
       </c>
@@ -11339,7 +11399,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1616</v>
       </c>
@@ -11347,7 +11407,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1617</v>
       </c>
@@ -11355,7 +11415,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1618</v>
       </c>
@@ -11363,7 +11423,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1619</v>
       </c>
@@ -11371,7 +11431,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1620</v>
       </c>
@@ -11379,7 +11439,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1621</v>
       </c>
@@ -11387,7 +11447,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1622</v>
       </c>
@@ -11395,7 +11455,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1623</v>
       </c>
@@ -11403,7 +11463,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>1624</v>
       </c>
@@ -11411,7 +11471,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1625</v>
       </c>
@@ -11419,7 +11479,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>1626</v>
       </c>
@@ -11427,7 +11487,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1627</v>
       </c>
@@ -11435,7 +11495,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>1628</v>
       </c>
@@ -11443,7 +11503,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1629</v>
       </c>
@@ -11451,7 +11511,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>1630</v>
       </c>
@@ -11459,7 +11519,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1631</v>
       </c>
@@ -11467,7 +11527,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>1632</v>
       </c>
@@ -11475,7 +11535,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>1633</v>
       </c>
@@ -11483,7 +11543,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>1634</v>
       </c>
@@ -11491,7 +11551,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>1635</v>
       </c>
@@ -11499,7 +11559,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>1636</v>
       </c>
@@ -11507,7 +11567,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>1637</v>
       </c>
@@ -11515,7 +11575,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>1638</v>
       </c>
@@ -11523,7 +11583,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>1639</v>
       </c>
@@ -11531,7 +11591,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>1640</v>
       </c>
@@ -11539,7 +11599,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>1641</v>
       </c>
@@ -11547,7 +11607,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>1642</v>
       </c>
@@ -11555,7 +11615,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>1643</v>
       </c>
@@ -11563,7 +11623,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>1644</v>
       </c>
@@ -11571,7 +11631,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>1645</v>
       </c>
@@ -11579,7 +11639,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>1646</v>
       </c>
@@ -11587,7 +11647,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>1647</v>
       </c>
@@ -11595,7 +11655,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>1648</v>
       </c>
@@ -11603,7 +11663,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>1649</v>
       </c>
@@ -11611,7 +11671,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>1650</v>
       </c>
@@ -11619,7 +11679,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>1651</v>
       </c>
@@ -11627,7 +11687,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>1652</v>
       </c>
@@ -11635,7 +11695,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>1653</v>
       </c>
@@ -11643,7 +11703,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>1654</v>
       </c>
@@ -11651,7 +11711,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>1655</v>
       </c>
@@ -11659,7 +11719,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>1656</v>
       </c>
@@ -11667,7 +11727,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>1657</v>
       </c>
@@ -11675,7 +11735,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>1658</v>
       </c>
@@ -11683,7 +11743,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>1659</v>
       </c>
@@ -11691,7 +11751,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>1660</v>
       </c>
@@ -11699,7 +11759,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>1661</v>
       </c>
@@ -11707,7 +11767,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>1662</v>
       </c>
@@ -11715,7 +11775,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>1663</v>
       </c>
@@ -11723,7 +11783,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>1664</v>
       </c>
@@ -11731,7 +11791,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>1665</v>
       </c>
@@ -11739,7 +11799,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>1666</v>
       </c>
@@ -11747,7 +11807,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>1667</v>
       </c>
@@ -11755,7 +11815,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>1668</v>
       </c>
@@ -11763,7 +11823,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>1669</v>
       </c>
@@ -11771,7 +11831,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>1670</v>
       </c>
@@ -11779,7 +11839,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>1671</v>
       </c>
@@ -11787,7 +11847,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>1672</v>
       </c>
@@ -11795,7 +11855,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>1673</v>
       </c>
@@ -11803,7 +11863,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>1674</v>
       </c>
@@ -11811,7 +11871,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>1675</v>
       </c>
@@ -11819,7 +11879,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>1676</v>
       </c>
@@ -11827,7 +11887,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>1677</v>
       </c>
@@ -11835,7 +11895,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>1678</v>
       </c>
@@ -11843,7 +11903,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>1679</v>
       </c>
@@ -11851,7 +11911,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>1680</v>
       </c>
@@ -11859,7 +11919,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>1681</v>
       </c>
@@ -11867,7 +11927,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>1682</v>
       </c>
@@ -11875,7 +11935,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>1683</v>
       </c>
@@ -11883,7 +11943,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>1684</v>
       </c>
@@ -11891,7 +11951,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>1685</v>
       </c>
@@ -11899,7 +11959,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>1686</v>
       </c>
@@ -11907,7 +11967,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>1687</v>
       </c>
@@ -11915,7 +11975,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>1688</v>
       </c>
@@ -11923,7 +11983,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>1689</v>
       </c>
@@ -11931,7 +11991,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>1690</v>
       </c>
@@ -11939,7 +11999,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>1691</v>
       </c>
@@ -11947,7 +12007,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>1692</v>
       </c>
@@ -11955,7 +12015,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>1693</v>
       </c>
@@ -11963,7 +12023,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>1694</v>
       </c>
@@ -11971,7 +12031,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>1695</v>
       </c>
@@ -11979,7 +12039,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>1696</v>
       </c>
@@ -11987,7 +12047,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>1697</v>
       </c>
@@ -11995,7 +12055,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>1698</v>
       </c>
@@ -12003,7 +12063,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>1699</v>
       </c>
@@ -12011,7 +12071,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>1700</v>
       </c>
@@ -12019,7 +12079,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>1701</v>
       </c>
@@ -12027,7 +12087,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>1702</v>
       </c>
@@ -12035,7 +12095,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>1703</v>
       </c>
@@ -12043,7 +12103,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>1704</v>
       </c>
@@ -12051,7 +12111,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>1705</v>
       </c>
@@ -12059,7 +12119,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>1706</v>
       </c>
@@ -12067,7 +12127,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>1707</v>
       </c>
@@ -12075,7 +12135,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>1708</v>
       </c>
@@ -12083,7 +12143,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>1709</v>
       </c>
@@ -12091,7 +12151,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>1710</v>
       </c>
@@ -12099,7 +12159,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>1711</v>
       </c>
@@ -12107,7 +12167,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>1712</v>
       </c>
@@ -12115,7 +12175,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>1713</v>
       </c>
@@ -12123,7 +12183,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>1714</v>
       </c>
@@ -12131,7 +12191,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>1715</v>
       </c>
@@ -12139,7 +12199,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>1716</v>
       </c>
@@ -12147,7 +12207,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>1717</v>
       </c>
@@ -12155,7 +12215,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>1718</v>
       </c>
@@ -12163,7 +12223,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>1719</v>
       </c>
@@ -12171,7 +12231,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>1720</v>
       </c>
@@ -12179,7 +12239,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>1721</v>
       </c>
@@ -12187,7 +12247,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>1722</v>
       </c>
@@ -12195,7 +12255,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>1723</v>
       </c>
@@ -12203,7 +12263,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>1724</v>
       </c>
@@ -12211,7 +12271,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>1725</v>
       </c>
@@ -12219,7 +12279,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>1726</v>
       </c>
@@ -12227,7 +12287,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>1727</v>
       </c>
@@ -12235,7 +12295,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>1728</v>
       </c>
@@ -12243,7 +12303,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>1729</v>
       </c>
@@ -12251,7 +12311,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>1730</v>
       </c>
@@ -12259,7 +12319,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>1731</v>
       </c>
@@ -12267,7 +12327,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>1732</v>
       </c>
@@ -12275,7 +12335,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>1733</v>
       </c>
@@ -12283,7 +12343,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>1734</v>
       </c>
@@ -12291,7 +12351,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>1735</v>
       </c>
@@ -12299,7 +12359,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>1736</v>
       </c>
@@ -12307,7 +12367,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>1737</v>
       </c>
@@ -12315,7 +12375,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>1738</v>
       </c>
@@ -12323,7 +12383,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>1739</v>
       </c>
@@ -12331,7 +12391,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>1740</v>
       </c>
@@ -12339,7 +12399,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>1741</v>
       </c>
@@ -12347,7 +12407,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>1742</v>
       </c>
@@ -12355,7 +12415,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>1743</v>
       </c>
@@ -12363,7 +12423,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>1744</v>
       </c>
@@ -12371,7 +12431,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>1745</v>
       </c>
@@ -12379,7 +12439,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>1746</v>
       </c>
@@ -12387,7 +12447,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>1747</v>
       </c>
@@ -12395,7 +12455,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>1748</v>
       </c>
@@ -12403,7 +12463,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>1749</v>
       </c>
@@ -12411,7 +12471,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>1750</v>
       </c>
@@ -12419,7 +12479,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>1751</v>
       </c>
@@ -12427,7 +12487,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>1752</v>
       </c>
@@ -12435,7 +12495,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>1753</v>
       </c>
@@ -12443,7 +12503,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>744</v>
       </c>
@@ -12451,7 +12511,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>1754</v>
       </c>
@@ -12459,7 +12519,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>1755</v>
       </c>
@@ -12467,7 +12527,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>1756</v>
       </c>
@@ -12475,7 +12535,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>1757</v>
       </c>
@@ -12483,7 +12543,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>1758</v>
       </c>
@@ -12491,7 +12551,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>1759</v>
       </c>
@@ -12499,7 +12559,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>1760</v>
       </c>
@@ -12507,7 +12567,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>1761</v>
       </c>
@@ -12515,7 +12575,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>1762</v>
       </c>
@@ -12523,7 +12583,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>1763</v>
       </c>
@@ -12531,7 +12591,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>1764</v>
       </c>
@@ -12539,7 +12599,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>1765</v>
       </c>
@@ -12547,7 +12607,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>1766</v>
       </c>
@@ -12555,7 +12615,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>1767</v>
       </c>
@@ -12563,7 +12623,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>1768</v>
       </c>
@@ -12571,7 +12631,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>1769</v>
       </c>
@@ -12579,7 +12639,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>1770</v>
       </c>
@@ -12587,7 +12647,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>1771</v>
       </c>
@@ -12595,7 +12655,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>1772</v>
       </c>
@@ -12603,7 +12663,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>1773</v>
       </c>
@@ -12611,7 +12671,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>1774</v>
       </c>
@@ -12619,7 +12679,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>1775</v>
       </c>
@@ -12627,7 +12687,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="1" t="s">
         <v>1776</v>
       </c>
@@ -12635,7 +12695,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>1777</v>
       </c>
@@ -12643,7 +12703,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="1" t="s">
         <v>1778</v>
       </c>
@@ -12651,7 +12711,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="1" t="s">
         <v>1779</v>
       </c>
@@ -12659,7 +12719,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>1780</v>
       </c>
@@ -12667,7 +12727,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>1781</v>
       </c>
@@ -12675,7 +12735,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>1782</v>
       </c>
@@ -12683,7 +12743,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>1783</v>
       </c>
@@ -12691,7 +12751,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>1784</v>
       </c>
@@ -12699,7 +12759,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>1785</v>
       </c>
@@ -12707,7 +12767,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="1" t="s">
         <v>1786</v>
       </c>
@@ -12715,7 +12775,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>1787</v>
       </c>
@@ -12723,7 +12783,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>1788</v>
       </c>
@@ -12731,7 +12791,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>1789</v>
       </c>
@@ -12739,7 +12799,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>1790</v>
       </c>
@@ -12747,7 +12807,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>1791</v>
       </c>
@@ -12755,7 +12815,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>1792</v>
       </c>
@@ -12763,7 +12823,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>1793</v>
       </c>
@@ -12771,7 +12831,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>1794</v>
       </c>
@@ -12779,7 +12839,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>1795</v>
       </c>
@@ -12787,7 +12847,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>1796</v>
       </c>
@@ -12795,7 +12855,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>1797</v>
       </c>
@@ -12803,7 +12863,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>1798</v>
       </c>
@@ -12811,7 +12871,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>1799</v>
       </c>
@@ -12819,7 +12879,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>1800</v>
       </c>
@@ -12827,7 +12887,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>1801</v>
       </c>
@@ -12835,7 +12895,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1" t="s">
         <v>1802</v>
       </c>
@@ -12843,7 +12903,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>1803</v>
       </c>
@@ -12851,7 +12911,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>1804</v>
       </c>
@@ -12859,7 +12919,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>1805</v>
       </c>
@@ -12867,7 +12927,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>1806</v>
       </c>
@@ -12875,7 +12935,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>1807</v>
       </c>
@@ -12883,7 +12943,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>1808</v>
       </c>
@@ -12891,7 +12951,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>1809</v>
       </c>
@@ -12899,7 +12959,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>1810</v>
       </c>
@@ -12907,7 +12967,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>1811</v>
       </c>
@@ -12915,7 +12975,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>1812</v>
       </c>
@@ -12923,7 +12983,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>1813</v>
       </c>
@@ -12931,7 +12991,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>1814</v>
       </c>
@@ -12939,7 +12999,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>1815</v>
       </c>
@@ -12947,7 +13007,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>1816</v>
       </c>
@@ -12955,7 +13015,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="1" t="s">
         <v>1817</v>
       </c>
@@ -12963,7 +13023,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>1818</v>
       </c>
@@ -12971,7 +13031,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>1819</v>
       </c>
@@ -12979,7 +13039,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>1820</v>
       </c>
@@ -12987,7 +13047,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>1821</v>
       </c>
@@ -12995,7 +13055,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>1822</v>
       </c>
@@ -13003,7 +13063,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>1823</v>
       </c>
@@ -13011,7 +13071,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>1824</v>
       </c>
@@ -13019,7 +13079,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>1825</v>
       </c>
@@ -13027,7 +13087,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>1826</v>
       </c>
@@ -13035,7 +13095,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>1827</v>
       </c>
@@ -13043,7 +13103,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>1828</v>
       </c>
@@ -13051,7 +13111,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>1829</v>
       </c>
@@ -13059,7 +13119,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>1830</v>
       </c>
@@ -13067,7 +13127,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>1831</v>
       </c>
@@ -13075,7 +13135,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="1" t="s">
         <v>1832</v>
       </c>
@@ -13083,7 +13143,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>1833</v>
       </c>
@@ -13091,7 +13151,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>1834</v>
       </c>
@@ -13099,7 +13159,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>1835</v>
       </c>
@@ -13107,7 +13167,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>1836</v>
       </c>
@@ -13115,7 +13175,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>1837</v>
       </c>
@@ -13123,7 +13183,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>1838</v>
       </c>
@@ -13131,7 +13191,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>1839</v>
       </c>
@@ -13139,7 +13199,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>1840</v>
       </c>
@@ -13147,7 +13207,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="846" spans="1:3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>1841</v>
       </c>
@@ -13155,7 +13215,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="847" spans="1:3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>1842</v>
       </c>
@@ -13163,7 +13223,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="848" spans="1:3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>1843</v>
       </c>
@@ -13171,7 +13231,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="849" spans="1:3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>1844</v>
       </c>
@@ -13179,7 +13239,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="1" t="s">
         <v>1845</v>
       </c>
@@ -13187,7 +13247,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="851" spans="1:3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>1846</v>
       </c>
@@ -13195,7 +13255,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>1847</v>
       </c>
@@ -13203,7 +13263,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>1848</v>
       </c>
@@ -13211,7 +13271,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>1849</v>
       </c>
@@ -13219,7 +13279,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>1850</v>
       </c>
@@ -13227,7 +13287,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>1851</v>
       </c>
@@ -13235,7 +13295,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>1852</v>
       </c>
@@ -13243,7 +13303,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>1853</v>
       </c>
@@ -13251,7 +13311,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>1854</v>
       </c>
@@ -13259,7 +13319,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>1855</v>
       </c>
@@ -13267,7 +13327,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="861" spans="1:3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>1856</v>
       </c>
@@ -13275,7 +13335,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="862" spans="1:3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>1857</v>
       </c>
@@ -13283,7 +13343,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="863" spans="1:3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="1" t="s">
         <v>1858</v>
       </c>
@@ -13291,7 +13351,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="864" spans="1:3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="1" t="s">
         <v>1859</v>
       </c>
@@ -13299,7 +13359,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="1" t="s">
         <v>1860</v>
       </c>
@@ -13307,7 +13367,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" s="1" t="s">
         <v>1861</v>
       </c>
@@ -13315,7 +13375,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" s="1" t="s">
         <v>1862</v>
       </c>
@@ -13323,7 +13383,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>1863</v>
       </c>
@@ -13331,7 +13391,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>1864</v>
       </c>
@@ -13339,7 +13399,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>1865</v>
       </c>
@@ -13347,7 +13407,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>1866</v>
       </c>
@@ -13355,7 +13415,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>1867</v>
       </c>
@@ -13363,7 +13423,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>1868</v>
       </c>
@@ -13371,7 +13431,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>871</v>
       </c>
@@ -13379,7 +13439,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>1869</v>
       </c>
@@ -13387,7 +13447,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" s="1" t="s">
         <v>1870</v>
       </c>
@@ -13395,8 +13455,8 @@
         <v>872</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
-      <c r="A877" s="3" t="s">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
         <v>1871</v>
       </c>
       <c r="C877" s="1" t="s">
@@ -13405,9 +13465,12 @@
       <c r="D877" s="1" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="878" spans="1:4">
-      <c r="A878" s="3" t="s">
+      <c r="E877" s="1" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
         <v>1872</v>
       </c>
       <c r="C878" s="1" t="s">
@@ -13416,9 +13479,12 @@
       <c r="D878" s="1" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="879" spans="1:4">
-      <c r="A879" s="3" t="s">
+      <c r="E878" s="1" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
         <v>1873</v>
       </c>
       <c r="C879" s="1" t="s">
@@ -13427,9 +13493,12 @@
       <c r="D879" s="1" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="880" spans="1:4">
-      <c r="A880" s="3" t="s">
+      <c r="E879" s="1" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
         <v>1874</v>
       </c>
       <c r="C880" s="1" t="s">
@@ -13438,9 +13507,12 @@
       <c r="D880" s="1" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="881" spans="1:4">
-      <c r="A881" s="3" t="s">
+      <c r="E880" s="1" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
         <v>1875</v>
       </c>
       <c r="C881" s="1" t="s">
@@ -13449,55 +13521,77 @@
       <c r="D881" s="1" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="882" spans="1:4">
-      <c r="A882" s="2"/>
+      <c r="E881" s="1" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C882" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="D882" s="1" t="s">
+      <c r="D882" s="3" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="883" spans="1:4">
-      <c r="A883" s="2"/>
+      <c r="E882" s="1" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C883" s="1" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="884" spans="1:4">
+      <c r="D883" s="3" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="1" t="s">
         <v>1876</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="885" spans="1:4">
+      <c r="E884" s="1" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>1877</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="886" spans="1:4">
+      <c r="E885" s="1" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" s="1" t="s">
         <v>1878</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="887" spans="1:4">
+      <c r="E886" s="1" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="1" t="s">
         <v>1879</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="888" spans="1:4">
+      <c r="E887" s="1" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="1" t="s">
         <v>1880</v>
       </c>
@@ -13505,7 +13599,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>1881</v>
       </c>
@@ -13513,7 +13607,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" s="1" t="s">
         <v>1882</v>
       </c>
@@ -13521,7 +13615,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" s="1" t="s">
         <v>1883</v>
       </c>
@@ -13529,7 +13623,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" s="1" t="s">
         <v>1884</v>
       </c>
@@ -13537,7 +13631,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="1" t="s">
         <v>1885</v>
       </c>
@@ -13545,7 +13639,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" s="1" t="s">
         <v>1886</v>
       </c>
@@ -13553,7 +13647,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" s="1" t="s">
         <v>1887</v>
       </c>
@@ -13561,7 +13655,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" s="1" t="s">
         <v>1888</v>
       </c>
@@ -13569,7 +13663,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="897" spans="1:3">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="1" t="s">
         <v>1889</v>
       </c>
@@ -13577,7 +13671,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="898" spans="1:3">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>1890</v>
       </c>
@@ -13585,7 +13679,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="899" spans="1:3">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="1" t="s">
         <v>1891</v>
       </c>
@@ -13593,7 +13687,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="900" spans="1:3">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="1" t="s">
         <v>1892</v>
       </c>
@@ -13601,7 +13695,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="901" spans="1:3">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>1893</v>
       </c>
@@ -13609,7 +13703,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="902" spans="1:3">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>1894</v>
       </c>
@@ -13617,7 +13711,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="903" spans="1:3">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="1" t="s">
         <v>1895</v>
       </c>
@@ -13625,7 +13719,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>1896</v>
       </c>
@@ -13633,7 +13727,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="905" spans="1:3">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>1897</v>
       </c>
@@ -13641,7 +13735,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="906" spans="1:3">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>1898</v>
       </c>
@@ -13649,7 +13743,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="907" spans="1:3">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="1" t="s">
         <v>1899</v>
       </c>
@@ -13657,7 +13751,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="908" spans="1:3">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>1900</v>
       </c>
@@ -13665,7 +13759,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="909" spans="1:3">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="1" t="s">
         <v>1901</v>
       </c>
@@ -13673,7 +13767,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="910" spans="1:3">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>1902</v>
       </c>
@@ -13681,7 +13775,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="911" spans="1:3">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="1" t="s">
         <v>1903</v>
       </c>
@@ -13689,7 +13783,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="912" spans="1:3">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="1" t="s">
         <v>1904</v>
       </c>
@@ -13697,7 +13791,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="1" t="s">
         <v>1905</v>
       </c>
@@ -13705,7 +13799,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>1906</v>
       </c>
@@ -13713,7 +13807,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="915" spans="1:3">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="1" t="s">
         <v>1907</v>
       </c>
@@ -13721,7 +13815,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="916" spans="1:3">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="1" t="s">
         <v>1908</v>
       </c>
@@ -13729,7 +13823,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="917" spans="1:3">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="1" t="s">
         <v>1909</v>
       </c>
@@ -13737,7 +13831,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="918" spans="1:3">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>1910</v>
       </c>
@@ -13745,7 +13839,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="919" spans="1:3">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="1" t="s">
         <v>1911</v>
       </c>
@@ -13753,7 +13847,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="920" spans="1:3">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="1" t="s">
         <v>1912</v>
       </c>
@@ -13761,7 +13855,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="921" spans="1:3">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="1" t="s">
         <v>1913</v>
       </c>
@@ -13769,7 +13863,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="922" spans="1:3">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>1914</v>
       </c>
@@ -13777,7 +13871,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="923" spans="1:3">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>1915</v>
       </c>
@@ -13785,7 +13879,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="924" spans="1:3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="1" t="s">
         <v>1916</v>
       </c>
@@ -13793,7 +13887,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="925" spans="1:3">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="1" t="s">
         <v>1917</v>
       </c>
@@ -13801,7 +13895,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="926" spans="1:3">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="1" t="s">
         <v>1918</v>
       </c>
@@ -13809,7 +13903,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="927" spans="1:3">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="1" t="s">
         <v>1919</v>
       </c>
@@ -13817,7 +13911,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="928" spans="1:3">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="1" t="s">
         <v>1920</v>
       </c>
@@ -13825,7 +13919,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="929" spans="1:3">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="1" t="s">
         <v>1921</v>
       </c>
@@ -13833,7 +13927,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="930" spans="1:3">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="1" t="s">
         <v>1922</v>
       </c>
@@ -13841,7 +13935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="931" spans="1:3">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>1923</v>
       </c>
@@ -13849,7 +13943,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="932" spans="1:3">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="1" t="s">
         <v>1924</v>
       </c>
@@ -13857,7 +13951,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="933" spans="1:3">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="1" t="s">
         <v>1925</v>
       </c>
@@ -13865,7 +13959,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="934" spans="1:3">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="1" t="s">
         <v>1926</v>
       </c>
@@ -13873,7 +13967,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="935" spans="1:3">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>1927</v>
       </c>
@@ -13881,7 +13975,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="936" spans="1:3">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="1" t="s">
         <v>1928</v>
       </c>
@@ -13889,7 +13983,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="937" spans="1:3">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="1" t="s">
         <v>1929</v>
       </c>
@@ -13897,7 +13991,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="938" spans="1:3">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="1" t="s">
         <v>1930</v>
       </c>
@@ -13905,7 +13999,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="939" spans="1:3">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>1931</v>
       </c>
@@ -13913,7 +14007,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="940" spans="1:3">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="1" t="s">
         <v>1932</v>
       </c>
@@ -13921,7 +14015,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="941" spans="1:3">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="1" t="s">
         <v>1933</v>
       </c>
@@ -13929,7 +14023,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="942" spans="1:3">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="1" t="s">
         <v>1934</v>
       </c>
@@ -13937,7 +14031,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="943" spans="1:3">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>1935</v>
       </c>
@@ -13945,7 +14039,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="944" spans="1:3">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="1" t="s">
         <v>1936</v>
       </c>
@@ -13953,7 +14047,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="945" spans="1:3">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="1" t="s">
         <v>1937</v>
       </c>
@@ -13961,7 +14055,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="946" spans="1:3">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="1" t="s">
         <v>1938</v>
       </c>
@@ -13969,7 +14063,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="947" spans="1:3">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>1939</v>
       </c>
@@ -13977,7 +14071,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="948" spans="1:3">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="1" t="s">
         <v>1940</v>
       </c>
@@ -13985,7 +14079,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="949" spans="1:3">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="1" t="s">
         <v>1941</v>
       </c>
@@ -13993,7 +14087,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="950" spans="1:3">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="1" t="s">
         <v>1942</v>
       </c>
@@ -14001,7 +14095,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="951" spans="1:3">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>1943</v>
       </c>
@@ -14009,7 +14103,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="952" spans="1:3">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="1" t="s">
         <v>1944</v>
       </c>
@@ -14017,7 +14111,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="953" spans="1:3">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953" s="1" t="s">
         <v>1945</v>
       </c>
@@ -14025,7 +14119,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="954" spans="1:3">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="1" t="s">
         <v>1946</v>
       </c>
@@ -14033,12 +14127,12 @@
         <v>949</v>
       </c>
     </row>
-    <row r="955" spans="1:3">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C955" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="956" spans="1:3">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="1" t="s">
         <v>1947</v>
       </c>
@@ -14046,7 +14140,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="957" spans="1:3">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="1" t="s">
         <v>1948</v>
       </c>
@@ -14054,7 +14148,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="958" spans="1:3">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="1" t="s">
         <v>1949</v>
       </c>
@@ -14062,7 +14156,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="959" spans="1:3">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>1950</v>
       </c>
@@ -14070,7 +14164,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="960" spans="1:3">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="1" t="s">
         <v>1951</v>
       </c>
@@ -14078,7 +14172,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="961" spans="1:3">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961" s="1" t="s">
         <v>1952</v>
       </c>
@@ -14086,7 +14180,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="962" spans="1:3">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="1" t="s">
         <v>1953</v>
       </c>
@@ -14094,7 +14188,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="963" spans="1:3">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>1954</v>
       </c>
@@ -14102,7 +14196,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="964" spans="1:3">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="1" t="s">
         <v>1955</v>
       </c>
@@ -14110,7 +14204,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="965" spans="1:3">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="1" t="s">
         <v>1956</v>
       </c>
@@ -14118,7 +14212,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="966" spans="1:3">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="1" t="s">
         <v>1957</v>
       </c>
@@ -14126,7 +14220,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="967" spans="1:3">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>1958</v>
       </c>
@@ -14134,7 +14228,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="968" spans="1:3">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="1" t="s">
         <v>1959</v>
       </c>
@@ -14142,7 +14236,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="969" spans="1:3">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="1" t="s">
         <v>1960</v>
       </c>
@@ -14150,7 +14244,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="970" spans="1:3">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="1" t="s">
         <v>1961</v>
       </c>
@@ -14158,7 +14252,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="971" spans="1:3">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="1" t="s">
         <v>1962</v>
       </c>
@@ -14166,7 +14260,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="972" spans="1:3">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="1" t="s">
         <v>1963</v>
       </c>
@@ -14174,7 +14268,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="973" spans="1:3">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="1" t="s">
         <v>1964</v>
       </c>
@@ -14182,7 +14276,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="974" spans="1:3">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="1" t="s">
         <v>1965</v>
       </c>
@@ -14190,7 +14284,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="975" spans="1:3">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="1" t="s">
         <v>1966</v>
       </c>
@@ -14198,7 +14292,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="976" spans="1:3">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="1" t="s">
         <v>1967</v>
       </c>
@@ -14206,7 +14300,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="977" spans="1:3">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>1968</v>
       </c>
@@ -14214,7 +14308,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="978" spans="1:3">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>1969</v>
       </c>
@@ -14222,7 +14316,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="979" spans="1:3">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>1970</v>
       </c>
@@ -14230,7 +14324,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="980" spans="1:3">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>1971</v>
       </c>
@@ -14238,7 +14332,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="981" spans="1:3">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>1972</v>
       </c>
@@ -14246,7 +14340,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="982" spans="1:3">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>1973</v>
       </c>
@@ -14254,7 +14348,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="983" spans="1:3">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>1974</v>
       </c>
@@ -14262,7 +14356,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="984" spans="1:3">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>1975</v>
       </c>
@@ -14270,7 +14364,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="985" spans="1:3">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>1976</v>
       </c>
@@ -14278,7 +14372,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="986" spans="1:3">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>1977</v>
       </c>
@@ -14286,7 +14380,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="987" spans="1:3">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>1978</v>
       </c>
@@ -14294,7 +14388,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="988" spans="1:3">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>1979</v>
       </c>
@@ -14302,7 +14396,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="989" spans="1:3">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>1980</v>
       </c>
@@ -14310,7 +14404,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="990" spans="1:3">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>1981</v>
       </c>
@@ -14318,7 +14412,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="991" spans="1:3">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>1982</v>
       </c>
@@ -14326,7 +14420,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="992" spans="1:3">
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>1983</v>
       </c>
@@ -14334,7 +14428,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="993" spans="1:3">
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993" s="1" t="s">
         <v>1984</v>
       </c>
@@ -14342,7 +14436,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="994" spans="1:3">
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" s="1" t="s">
         <v>1985</v>
       </c>
@@ -14350,7 +14444,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="995" spans="1:3">
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A995" s="1" t="s">
         <v>1986</v>
       </c>
@@ -14358,7 +14452,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="996" spans="1:3">
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A996" s="1" t="s">
         <v>1987</v>
       </c>
@@ -14366,7 +14460,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="997" spans="1:3">
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A997" s="1" t="s">
         <v>1988</v>
       </c>
@@ -14374,7 +14468,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="998" spans="1:3">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A998" s="1" t="s">
         <v>1989</v>
       </c>
@@ -14382,7 +14476,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="999" spans="1:3">
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>1990</v>
       </c>
@@ -14390,7 +14484,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="1000" spans="1:3">
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1000" s="1" t="s">
         <v>1991</v>
       </c>
@@ -14398,7 +14492,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="1001" spans="1:3">
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1001" s="1" t="s">
         <v>1992</v>
       </c>
@@ -14406,7 +14500,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="1002" spans="1:3">
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1002" s="1" t="s">
         <v>1993</v>
       </c>
@@ -14414,7 +14508,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="1003" spans="1:3">
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1003" s="1" t="s">
         <v>1994</v>
       </c>
@@ -14422,7 +14516,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1004" spans="1:3">
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1004" s="1" t="s">
         <v>1995</v>
       </c>
@@ -14430,7 +14524,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="1005" spans="1:3">
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1005" s="1" t="s">
         <v>1996</v>
       </c>
@@ -14438,7 +14532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1006" spans="1:3">
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1006" s="1" t="s">
         <v>1997</v>
       </c>
@@ -14446,7 +14540,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="1007" spans="1:3">
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1007" s="1" t="s">
         <v>1998</v>
       </c>
@@ -14454,7 +14548,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="1008" spans="1:3">
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1008" s="1" t="s">
         <v>1999</v>
       </c>
@@ -14462,7 +14556,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="1009" spans="1:3">
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1009" s="1" t="s">
         <v>2000</v>
       </c>
@@ -14470,7 +14564,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="1010" spans="1:3">
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1010" s="1" t="s">
         <v>2001</v>
       </c>
@@ -14478,7 +14572,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="1011" spans="1:3">
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1011" s="1" t="s">
         <v>2002</v>
       </c>
@@ -14486,7 +14580,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1012" spans="1:3">
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1012" s="1" t="s">
         <v>2003</v>
       </c>
@@ -14501,24 +14595,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
